--- a/Risultatifinali.xlsx
+++ b/Risultatifinali.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/michele_sprocatti_studenti_unipd_it/Documents/Tesi/AlcuinProblem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesprocatti/Library/CloudStorage/OneDrive-UniversitàdegliStudidiPadova/Tesi/AlcuinProblem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{ADD03425-98BF-1C4A-80A4-01EF27BFD06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3BB72B-0D08-6149-A899-07188038E50C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A48DA-6514-6C46-835D-2D6933850315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risultati finali" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="Tutti prima esecuzione analisi" sheetId="3" r:id="rId3"/>
     <sheet name="Solo 5 casi per tipologia" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Risultati più esecuzioni analis'!$N$8</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Risultati più esecuzioni analis'!$N$9:$N$12</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Risultati più esecuzioni analis'!$O$8</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Risultati più esecuzioni analis'!$O$9:$O$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -731,6 +737,1992 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NUMBER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$N$29:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>OPTIMAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INFEASIBILE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$P$29:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C78-3449-A534-27C4E057ECB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>AVG/STD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> tempi</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solo 5 casi per tipologia'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$M$6:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4086.0984786748827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11284.916199326492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4990.2428039073902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4737.9413594484204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE54-BE4A-83D9-6D5765BE07A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solo 5 casi per tipologia'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$N$6:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2608.7470377537579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9775.1001886007289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2843.3932011809784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4417.0864628969412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE54-BE4A-83D9-6D5765BE07A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1234623759"/>
+        <c:axId val="1234917215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1234623759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234917215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234917215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234623759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solo 5 casi per tipologia'!$Y$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG OPTIMAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$X$16:$X$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solo 5 casi per tipologia'!$Y$16:$Y$19</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4086.0984786748827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15720.701671163204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5094.7435308694776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5829.0793112516249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50DC-9A45-BCA9-9D5E3059CF92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1205732495"/>
+        <c:axId val="1234113055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1205732495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234113055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234113055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205732495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$N$29:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>OPTIMAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INFEASIBILE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$O$29:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4825.815267844624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2079.0621486604186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA74-F644-ADAE-678E8632E86F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="884076783"/>
+        <c:axId val="884277263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="884076783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884277263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="884277263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884076783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$L$9:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$M$9:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2668.1955239110453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6359.84552311896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2898.0877731641108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2728.5518547773327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E5E-744E-8D65-3EBAEE41B9CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="893161695"/>
+        <c:axId val="893144383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="893161695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="893144383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="893144383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="893161695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32603137206274418"/>
+          <c:y val="5.0704225352112678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPTIMAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$L$9:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$N$9:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B432-6841-BCF6-4D6B6B0A2C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risultati più esecuzioni analis'!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INFEASIBLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$L$9:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risultati più esecuzioni analis'!$O$9:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B432-6841-BCF6-4D6B6B0A2C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="909436559"/>
+        <c:axId val="909438287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="909436559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="909438287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="909438287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="909436559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1026,7 +3018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1336,7 +3328,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1413,6 +3405,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4708-D244-9CD5-7173B03E0A00}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1428,6 +3425,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4708-D244-9CD5-7173B03E0A00}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1551,7 +3553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1946,7 +3948,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2367,759 +4369,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Solo 5 casi per tipologia'!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AVG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$L$6:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$M$6:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4086.0984786748827</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11284.916199326492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4990.2428039073902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4737.9413594484204</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE54-BE4A-83D9-6D5765BE07A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Solo 5 casi per tipologia'!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>STD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$L$6:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$N$6:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2608.7470377537579</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9775.1001886007289</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2843.3932011809784</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4417.0864628969412</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE54-BE4A-83D9-6D5765BE07A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1234623759"/>
-        <c:axId val="1234917215"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1234623759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1234917215"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1234917215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1234623759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Solo 5 casi per tipologia'!$Y$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AVG OPTIMAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$X$16:$X$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Solo 5 casi per tipologia'!$Y$16:$Y$19</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4086.0984786748827</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15720.701671163204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5094.7435308694776</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5829.0793112516249</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50DC-9A45-BCA9-9D5E3059CF92}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1205732495"/>
-        <c:axId val="1234113055"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1205732495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1234113055"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1234113055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1205732495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3399,8 +4729,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3457,7 +4867,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3509,9 +4919,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3524,16 +4936,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3559,9 +4973,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3574,7 +4985,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3617,22 +5028,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3737,8 +5149,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3870,19 +5282,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3915,8 +5328,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3943,8 +5356,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4024,11 +5437,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4039,11 +5447,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4055,7 +5458,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4075,9 +5478,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4090,10 +5490,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4133,22 +5533,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4253,8 +5654,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4386,110 +5787,122 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4540,13 +5953,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4557,25 +5963,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4610,7 +6009,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4931,6 +6330,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4950,7 +6360,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5453,8 +6863,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5481,8 +6891,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5583,7 +6993,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5615,10 +7025,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5658,22 +7068,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5778,8 +7189,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5911,19 +7322,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5937,6 +7349,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5956,8 +7379,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5984,8 +7407,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6086,7 +7509,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6118,10 +7541,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6161,23 +7584,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6282,8 +7704,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6415,20 +7837,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6442,17 +7863,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6472,8 +7882,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6500,8 +7910,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6581,6 +7991,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6591,6 +8006,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6602,7 +8022,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6622,6 +8042,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6634,10 +8057,1043 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6958,17 +9414,1012 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6989,6 +10440,155 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F11B264-1463-79BC-9234-C840D9F0F563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48E141A-A9F1-7010-AEFA-4A44B41771EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF32C9D4-121B-B319-62AB-EABBE585C963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C535288D-33CE-E0D4-A7B4-5318F7BEFF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7065,7 +10665,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9536,8 +13136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3926DA5D-10DA-0E4E-B167-B4E6A5991227}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11978,6 +15578,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13242,8 +16843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841777F6-B23F-884F-8015-263B0EB7258B}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14604,7 +18205,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="M6:N9" formulaRange="1"/>
+    <ignoredError sqref="M6:N9 Y16" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
